--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Bìa" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="231">
   <si>
     <t>TESTCASE
 WEBSITE BÁN ĐIỆN THOẠI DI ĐỘNG</t>
@@ -607,12 +607,6 @@
     <t>Chưa kiểm tra sản phẩm đăng nằm trong đơn hàng</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
     <t>Xem chi tiết đơn hàng</t>
   </si>
   <si>
@@ -620,6 +614,151 @@
   </si>
   <si>
     <t>Hiển thị chi tiết thông tin của đơn hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra đơn hàng theo trạng thái</t>
+  </si>
+  <si>
+    <t>Hiển thị các đơn hàng theo trạng thái được chọn</t>
+  </si>
+  <si>
+    <t>Duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Chọn nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra chọn nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị cửa sổ chọn nhân viên giao hàng
+Cập nhật trạng thái đơn hàng thành đang giao sau khi chọn nhân viên</t>
+  </si>
+  <si>
+    <t>Thông báo duyệt đơn hàng thành công
+Cập nhật trạng thái đơn hàng thành đã duyệt nếu xác nhận duyệt đơn
+Cập nhật trạng thái đơn hàng thành đã hủy nếu hủy đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật trạng thái đơn hàng thành công
+Cập nhật trạng thái đơn hàng thành đã giao</t>
+  </si>
+  <si>
+    <t>Duyệt giao hàng thất bại</t>
+  </si>
+  <si>
+    <t>Duyệt giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra duyệt giao hàng thành công</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật trạng thái đơn hàng thành công
+Cập nhật trạng thái đơn hàng thành đã hủy</t>
+  </si>
+  <si>
+    <t>Thông báo mã đơn đặt hàng không được rỗng</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã đơn đặt hàng rỗng</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng mã đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Thông báo mã đơn đặt hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra duyệt giao hàng thất bại</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo đơn đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Thông báo tạo đơn đặt hàng thành công
+Hiển thị đơn đặt hàng vừa tạo</t>
+  </si>
+  <si>
+    <t>Thêm đặt hàng nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thêm chi tiết đặt hàng nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Thông báo thêm thành công
+Cập nhật vào đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị doanh thu tất cả đơn hàng trong khoảng thời gian được chọn</t>
+  </si>
+  <si>
+    <t>Thông kê doanh thu đơn hàng theo khoảng thời gian</t>
+  </si>
+  <si>
+    <t>Kiểm tra thống kê doanh thu đơn hàng theo khoản thời gian</t>
+  </si>
+  <si>
+    <t>Ngày bắt đằu: 01/01/2023
+Ngày kết thúc: 31/1/2023</t>
+  </si>
+  <si>
+    <t>Lập phiếu nhập</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã phiếu nhập rỗng</t>
+  </si>
+  <si>
+    <t>Thông báo mã phiếu nhập không được trống</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng mã phiếu nhập</t>
+  </si>
+  <si>
+    <t>Thông báo mã phiếu nhập đã tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra lập phiếu nhập thành công</t>
+  </si>
+  <si>
+    <t>Thông báo tạo phiếu nhập thành thông
+Hiển thi phiếu nhập vừa tạo</t>
+  </si>
+  <si>
+    <t>Kiểm tra nhập hàng từ phiếu nhập</t>
+  </si>
+  <si>
+    <t>Thông báo nhập hàng thành công
+Cập nhật lại số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Mã PN đã có: PN001
+Mã PN vừa thêm: PN001</t>
+  </si>
+  <si>
+    <t>Mã phiếu nhập: ""</t>
+  </si>
+  <si>
+    <t>CTDDH đã lập: mã DDH: DDH001, maloaisp: SSA23
+CTDDH vừa thêm: mã DDH: DDH001, maloaisp: SSA23</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng chi tiết đặt hàng</t>
+  </si>
+  <si>
+    <t>Thông báo chi tiết đặt hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>Kiểm tra thêm chi tiết đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Mã DDH: DDH001
+Mã sản phẩm: SSA23</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm: ""</t>
   </si>
 </sst>
 </file>
@@ -806,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +1010,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -936,6 +1085,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,54 +1410,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1374,69 +1529,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1491,10 +1646,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="39" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1516,8 +1671,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="24" t="s">
         <v>154</v>
       </c>
@@ -1539,8 +1694,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="24" t="s">
         <v>156</v>
       </c>
@@ -1639,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,69 +1812,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1774,10 +1929,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="47" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1786,7 +1941,9 @@
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>230</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
         <v>170</v>
@@ -1801,8 +1958,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="24" t="s">
         <v>171</v>
       </c>
@@ -1826,8 +1983,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
         <v>173</v>
       </c>
@@ -1875,7 +2032,7 @@
       </c>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1926,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,69 +2102,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2039,16 +2196,18 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>185</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2064,16 +2223,18 @@
         <v>44</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>187</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2084,21 +2245,23 @@
       </c>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2109,21 +2272,23 @@
       </c>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2134,21 +2299,23 @@
       </c>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>198</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2159,21 +2326,23 @@
       </c>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="17"/>
+        <v>204</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="24" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>77</v>
@@ -2183,81 +2352,6 @@
         <v>78</v>
       </c>
       <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2279,80 +2373,90 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
@@ -2377,8 +2481,137 @@
       </c>
       <c r="L7" s="17"/>
     </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
@@ -2397,80 +2630,90 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
@@ -2494,6 +2737,35 @@
         <v>78</v>
       </c>
       <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2515,80 +2787,90 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
@@ -2613,8 +2895,110 @@
       </c>
       <c r="L7" s="17"/>
     </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
@@ -2628,6 +3012,7 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2654,18 +3039,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -2950,69 +3335,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3192,10 +3577,10 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3217,8 +3602,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
@@ -3281,69 +3666,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3371,10 +3756,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="43" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3394,8 +3779,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
@@ -3509,69 +3894,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3599,10 +3984,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3624,8 +4009,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="19" t="s">
         <v>99</v>
       </c>
@@ -3647,8 +4032,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="19" t="s">
         <v>100</v>
       </c>
@@ -3670,8 +4055,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="19" t="s">
         <v>101</v>
       </c>
@@ -3693,8 +4078,8 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="19" t="s">
         <v>102</v>
       </c>
@@ -3783,69 +4168,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -3965,69 +4350,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4174,69 +4559,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4383,69 +4768,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">

--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Bìa" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="223">
   <si>
     <t>TESTCASE
 WEBSITE BÁN ĐIỆN THOẠI DI ĐỘNG</t>
@@ -536,17 +536,6 @@
     <t>Hiển thị thông tin hãng sau khi chỉnh sửa</t>
   </si>
   <si>
-    <t>Xóa hãng</t>
-  </si>
-  <si>
-    <t>Kiểm tra hãng</t>
-  </si>
-  <si>
-    <t>Chỉ cho xóa hãng khi hãng không có sản phẩm nào
-Thông báo xóa hãng thành công
-Cập nhật lại danh sách hãng</t>
-  </si>
-  <si>
     <t>Xem thông tin chi tiết sản phẩm</t>
   </si>
   <si>
@@ -590,21 +579,6 @@
   <si>
     <t>Cập nhật thông tin sản phẩm sau khi đã điều chỉnh
 Thông báo điều chỉnh thông tin sản phẩm thành công.</t>
-  </si>
-  <si>
-    <t>Xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Kiểm tra xóa sản phẩm</t>
-  </si>
-  <si>
-    <t>Chỉ cho phép xóa sản phẩm khi số lượng sản phẩm bằng không và sản phẩm không nằm trong bất kỳ đơn hàng nào</t>
-  </si>
-  <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
-    <t>Chưa kiểm tra sản phẩm đăng nằm trong đơn hàng</t>
   </si>
   <si>
     <t>Xem chi tiết đơn hàng</t>
@@ -1020,6 +994,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1088,9 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,54 +1384,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1510,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,69 +1503,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1646,10 +1620,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="40" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1663,7 +1637,9 @@
       <c r="H9" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="J9" s="17"/>
       <c r="K9" s="18" t="s">
         <v>78</v>
@@ -1671,8 +1647,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="24" t="s">
         <v>154</v>
       </c>
@@ -1686,7 +1662,9 @@
       <c r="H10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="18" t="s">
         <v>78</v>
@@ -1694,8 +1672,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="24" t="s">
         <v>156</v>
       </c>
@@ -1742,33 +1720,6 @@
         <v>78</v>
       </c>
       <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1792,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,69 +1763,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1906,10 +1857,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -1917,7 +1868,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -1929,24 +1880,24 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>168</v>
+      <c r="C9" s="48" t="s">
+        <v>165</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -1958,20 +1909,20 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -1983,10 +1934,10 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -1994,7 +1945,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2010,10 +1961,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -2021,7 +1972,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2031,35 +1982,6 @@
         <v>78</v>
       </c>
       <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>183</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2102,69 +2024,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2196,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2207,7 +2129,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2226,7 +2148,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2234,7 +2156,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2250,10 +2172,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2261,7 +2183,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2277,10 +2199,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2288,7 +2210,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2304,10 +2226,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -2315,7 +2237,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2331,10 +2253,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>66</v>
@@ -2342,7 +2264,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>77</v>
@@ -2392,69 +2314,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2482,14 +2404,14 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>207</v>
+      <c r="C8" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2497,7 +2419,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2509,10 +2431,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2520,7 +2442,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2532,10 +2454,10 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2543,7 +2465,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2555,24 +2477,24 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>208</v>
+      <c r="C11" s="53" t="s">
+        <v>200</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="28" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2584,20 +2506,20 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="53" t="s">
-        <v>229</v>
+      <c r="F12" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="G12" s="29"/>
-      <c r="H12" s="53" t="s">
-        <v>209</v>
+      <c r="H12" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2608,11 +2530,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2623,6 +2540,11 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2649,69 +2571,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2743,20 +2665,20 @@
         <v>43</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2806,69 +2728,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2896,24 +2818,24 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>214</v>
+      <c r="C8" s="53" t="s">
+        <v>206</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2925,20 +2847,20 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2950,10 +2872,10 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2961,7 +2883,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2973,10 +2895,10 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2984,7 +2906,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -3039,18 +2961,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -3335,69 +3257,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3577,10 +3499,10 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="40" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3602,8 +3524,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
@@ -3666,69 +3588,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3756,10 +3678,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3779,8 +3701,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
@@ -3894,69 +3816,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3984,10 +3906,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -4009,8 +3931,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="19" t="s">
         <v>99</v>
       </c>
@@ -4032,8 +3954,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="19" t="s">
         <v>100</v>
       </c>
@@ -4055,8 +3977,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="19" t="s">
         <v>101</v>
       </c>
@@ -4078,8 +4000,8 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="19" t="s">
         <v>102</v>
       </c>
@@ -4168,69 +4090,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -4350,69 +4272,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4559,69 +4481,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4768,69 +4690,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">

--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Bìa" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="231">
   <si>
     <t>TESTCASE
 WEBSITE BÁN ĐIỆN THOẠI DI ĐỘNG</t>
@@ -536,6 +536,17 @@
     <t>Hiển thị thông tin hãng sau khi chỉnh sửa</t>
   </si>
   <si>
+    <t>Xóa hãng</t>
+  </si>
+  <si>
+    <t>Kiểm tra hãng</t>
+  </si>
+  <si>
+    <t>Chỉ cho xóa hãng khi hãng không có sản phẩm nào
+Thông báo xóa hãng thành công
+Cập nhật lại danh sách hãng</t>
+  </si>
+  <si>
     <t>Xem thông tin chi tiết sản phẩm</t>
   </si>
   <si>
@@ -579,6 +590,21 @@
   <si>
     <t>Cập nhật thông tin sản phẩm sau khi đã điều chỉnh
 Thông báo điều chỉnh thông tin sản phẩm thành công.</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép xóa sản phẩm khi số lượng sản phẩm bằng không và sản phẩm không nằm trong bất kỳ đơn hàng nào</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Chưa kiểm tra sản phẩm đăng nằm trong đơn hàng</t>
   </si>
   <si>
     <t>Xem chi tiết đơn hàng</t>
@@ -994,9 +1020,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1065,6 +1088,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1384,54 +1410,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1484,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:L14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,69 +1529,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1620,10 +1646,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1637,9 +1663,7 @@
       <c r="H9" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18" t="s">
         <v>78</v>
@@ -1647,8 +1671,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="24" t="s">
         <v>154</v>
       </c>
@@ -1662,9 +1686,7 @@
       <c r="H10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18" t="s">
         <v>78</v>
@@ -1672,8 +1694,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="24" t="s">
         <v>156</v>
       </c>
@@ -1720,6 +1742,33 @@
         <v>78</v>
       </c>
       <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1743,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,69 +1812,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1857,10 +1906,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -1868,7 +1917,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -1880,24 +1929,24 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>165</v>
+      <c r="C9" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -1909,20 +1958,20 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -1934,10 +1983,10 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -1945,7 +1994,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -1961,10 +2010,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -1972,7 +2021,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -1982,6 +2031,35 @@
         <v>78</v>
       </c>
       <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2024,69 +2102,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2118,10 +2196,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2129,7 +2207,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2148,7 +2226,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2156,7 +2234,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2172,10 +2250,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2183,7 +2261,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2199,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2210,7 +2288,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2226,10 +2304,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -2237,7 +2315,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2253,10 +2331,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>66</v>
@@ -2264,7 +2342,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="24" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>77</v>
@@ -2314,69 +2392,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2404,14 +2482,14 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>199</v>
+      <c r="C8" s="39" t="s">
+        <v>207</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2419,7 +2497,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2431,10 +2509,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2442,7 +2520,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2454,10 +2532,10 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="26" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2465,7 +2543,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="26" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2477,24 +2555,24 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>200</v>
+      <c r="C11" s="52" t="s">
+        <v>208</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="28" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2506,20 +2584,20 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="20" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>221</v>
+      <c r="F12" s="53" t="s">
+        <v>229</v>
       </c>
       <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
-        <v>201</v>
+      <c r="H12" s="53" t="s">
+        <v>209</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2530,6 +2608,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2540,11 +2623,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2571,69 +2649,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2665,20 +2743,20 @@
         <v>43</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2728,69 +2806,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2818,24 +2896,24 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>206</v>
+      <c r="C8" s="52" t="s">
+        <v>214</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2847,20 +2925,20 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="26" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2872,10 +2950,10 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="20" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2883,7 +2961,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2895,10 +2973,10 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="20" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2906,7 +2984,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="20" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2961,18 +3039,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -3257,69 +3335,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3499,10 +3577,10 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3524,8 +3602,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
@@ -3588,69 +3666,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3678,10 +3756,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3701,8 +3779,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
@@ -3816,69 +3894,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3906,10 +3984,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3931,8 +4009,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="19" t="s">
         <v>99</v>
       </c>
@@ -3954,8 +4032,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="19" t="s">
         <v>100</v>
       </c>
@@ -3977,8 +4055,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="19" t="s">
         <v>101</v>
       </c>
@@ -4000,8 +4078,8 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="19" t="s">
         <v>102</v>
       </c>
@@ -4090,69 +4168,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -4272,69 +4350,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4481,69 +4559,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4690,69 +4768,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">

--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -542,9 +542,6 @@
     <t>Kiểm tra xem chi tiết thông tin sản phẩm</t>
   </si>
   <si>
-    <t>Hiển thị thong tin chi tiết sản phẩm</t>
-  </si>
-  <si>
     <t>Thêm sản phẩm mới</t>
   </si>
   <si>
@@ -733,6 +730,9 @@
   </si>
   <si>
     <t>Mã sản phẩm: ""</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin chi tiết sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1868,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -1884,20 +1884,20 @@
         <v>44</v>
       </c>
       <c r="C9" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -1912,17 +1912,17 @@
       <c r="B10" s="51"/>
       <c r="C10" s="49"/>
       <c r="D10" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -1937,7 +1937,7 @@
       <c r="B11" s="39"/>
       <c r="C11" s="50"/>
       <c r="D11" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -1945,7 +1945,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -1961,10 +1961,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -1972,7 +1972,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2118,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>176</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2129,7 +2129,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2148,7 +2148,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2156,7 +2156,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2172,10 +2172,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>181</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>182</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2183,7 +2183,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2199,10 +2199,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>184</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2210,7 +2210,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2226,10 +2226,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -2237,7 +2237,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -2253,10 +2253,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>66</v>
@@ -2264,7 +2264,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>77</v>
@@ -2408,10 +2408,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
@@ -2419,7 +2419,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2434,7 +2434,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="52"/>
       <c r="D9" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
@@ -2442,7 +2442,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2457,7 +2457,7 @@
       <c r="B10" s="39"/>
       <c r="C10" s="41"/>
       <c r="D10" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2465,7 +2465,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2481,20 +2481,20 @@
         <v>44</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>
@@ -2509,17 +2509,17 @@
       <c r="B12" s="45"/>
       <c r="C12" s="53"/>
       <c r="D12" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2530,6 +2530,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2540,11 +2545,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2665,20 +2665,20 @@
         <v>43</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>204</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2822,20 +2822,20 @@
         <v>43</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>207</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>77</v>
@@ -2850,17 +2850,17 @@
       <c r="B9" s="45"/>
       <c r="C9" s="53"/>
       <c r="D9" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>77</v>
@@ -2875,7 +2875,7 @@
       <c r="B10" s="45"/>
       <c r="C10" s="53"/>
       <c r="D10" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>66</v>
@@ -2883,7 +2883,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>77</v>
@@ -2898,7 +2898,7 @@
       <c r="B11" s="45"/>
       <c r="C11" s="53"/>
       <c r="D11" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
@@ -2906,7 +2906,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>77</v>

--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="225">
   <si>
     <t>TESTCASE
 WEBSITE BÁN ĐIỆN THOẠI DI ĐỘNG</t>
@@ -733,6 +733,12 @@
   </si>
   <si>
     <t>Hiển thị thông tin chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra không cho nhập giá âm</t>
+  </si>
+  <si>
+    <t>Hiển thị cảnh báo giá tiền phải lớn hơn 0</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,6 +1002,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1384,54 +1393,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1503,69 +1512,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1620,10 +1629,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1647,8 +1656,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="24" t="s">
         <v>154</v>
       </c>
@@ -1672,8 +1681,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="24" t="s">
         <v>156</v>
       </c>
@@ -1743,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,69 +1772,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1880,10 +1889,10 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>164</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -1909,8 +1918,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="24" t="s">
         <v>167</v>
       </c>
@@ -1933,23 +1942,21 @@
       </c>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="24" t="s">
-        <v>169</v>
+      <c r="D11" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="H11" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18" t="s">
         <v>78</v>
@@ -1957,14 +1964,10 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>66</v>
@@ -1972,7 +1975,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>77</v>
@@ -1983,10 +1986,37 @@
       </c>
       <c r="L12" s="17"/>
     </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
@@ -2024,69 +2054,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2314,69 +2344,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2404,10 +2434,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>198</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -2431,8 +2461,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="26" t="s">
         <v>193</v>
       </c>
@@ -2454,8 +2484,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="26" t="s">
         <v>196</v>
       </c>
@@ -2477,10 +2507,10 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="54" t="s">
         <v>199</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -2506,8 +2536,8 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="20" t="s">
         <v>219</v>
       </c>
@@ -2530,11 +2560,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2545,6 +2570,11 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2571,69 +2601,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2728,69 +2758,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -2818,10 +2848,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>205</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -2847,8 +2877,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="26" t="s">
         <v>208</v>
       </c>
@@ -2872,8 +2902,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="20" t="s">
         <v>210</v>
       </c>
@@ -2895,8 +2925,8 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="20" t="s">
         <v>212</v>
       </c>
@@ -2961,18 +2991,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -3257,69 +3287,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3499,10 +3529,10 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -3524,8 +3554,8 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="10" t="s">
         <v>65</v>
       </c>
@@ -3588,69 +3618,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -3678,10 +3708,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -3701,8 +3731,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
@@ -3816,69 +3846,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3906,10 +3936,10 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3931,8 +3961,8 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="19" t="s">
         <v>99</v>
       </c>
@@ -3954,8 +3984,8 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="19" t="s">
         <v>100</v>
       </c>
@@ -3977,8 +4007,8 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="19" t="s">
         <v>101</v>
       </c>
@@ -4000,8 +4030,8 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="19" t="s">
         <v>102</v>
       </c>
@@ -4090,69 +4120,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -4272,69 +4302,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4481,69 +4511,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -4690,69 +4720,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">

--- a/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
+++ b/BAOCAO/Testcase/MOBILESHOP_TestcaseDetail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFDCEA2-D7CD-4F27-B014-F980EF3BAB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bìa" sheetId="1" r:id="rId1"/>
@@ -23,6 +24,18 @@
     <sheet name="12. Thống kê" sheetId="15" r:id="rId14"/>
     <sheet name="13.Nhập hàng" sheetId="16" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1. Trang chủ'!$A$1:$M$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2. Đăng nhập'!$A$1:$M$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3. Đăng ký'!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'4. Chi tiết sản phẩm'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'5. Giỏ hàng'!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'6. Đặt hàng'!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'7. Theo dõi đơn hàng'!$A$1:$M$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'8. Quản lý hãng'!$A$1:$M$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Bìa!$A$1:$M$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">SUMMARRY_REPORT!$A$1:$L$19</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -744,7 +757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,14 +947,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -955,13 +960,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -971,40 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1075,6 +1045,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,9 +1079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1134,9 +1119,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,7 +1156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,7 +1191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1379,10 +1364,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1393,54 +1378,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="9" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1487,16 +1472,16 @@
     <mergeCell ref="D2:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:L14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,223 +1497,223 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="I12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1747,14 +1732,15 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1772,246 +1758,246 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="31" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="I12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="17"/>
+      <c r="I13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2030,11 +2016,12 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2054,256 +2041,256 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="I12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="17"/>
+      <c r="I13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2324,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2344,222 +2331,227 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="29"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2570,18 +2562,13 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2601,123 +2588,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2738,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2758,194 +2745,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="29"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="29"/>
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2969,11 +2956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,292 +2973,294 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="5" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="40">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="40">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="40">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="40">
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="40">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="40">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="40">
         <v>8</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="40">
         <v>9</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="40">
         <v>10</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="40">
         <v>11</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="40">
         <v>12</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="40">
         <v>13</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" location="'1. Trang chủ'!A1" display="Trang chủ"/>
-    <hyperlink ref="C7" location="'2. Đăng nhập'!A1" display="Đăng nhập"/>
-    <hyperlink ref="C8" location="'3. Đăng ký'!A1" display="Đăng ký"/>
-    <hyperlink ref="C9" location="'4. Chi tiết sản phẩm'!A1" display="Chi tiết sản phẩm"/>
-    <hyperlink ref="C10" location="'5. Giỏ hàng'!A1" display="Giỏ hàng"/>
-    <hyperlink ref="C11" location="'6. Đặt hàng'!A1" display="Đặt hàng"/>
-    <hyperlink ref="C12" location="'7. Theo dõi đơn hàng'!A1" display="Quản lý đơn hàng (khách hàng)"/>
-    <hyperlink ref="C13" location="'8. Quản lý hãng'!A1" display="Quản lý Hãng"/>
-    <hyperlink ref="C14" location="'9. Quản lý sản phẩm'!A1" display="Quản lý sản phẩm"/>
-    <hyperlink ref="C15" location="'10. Quản lý đơn hàng'!A1" display="Quản lý đơn hàng (Admin)"/>
-    <hyperlink ref="C16" location="'11. Đặt hàng nhà cung cấp'!A1" display="Đặt hàng nhà cung cấp"/>
-    <hyperlink ref="C17" location="'12. Thống kê'!A1" display="Thống kê"/>
-    <hyperlink ref="C18" location="'13.Nhập hàng'!A1" display="Nhập hàng"/>
+    <hyperlink ref="C6" location="'1. Trang chủ'!A1" display="Trang chủ" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C7" location="'2. Đăng nhập'!A1" display="Đăng nhập" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C8" location="'3. Đăng ký'!A1" display="Đăng ký" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C9" location="'4. Chi tiết sản phẩm'!A1" display="Chi tiết sản phẩm" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C10" location="'5. Giỏ hàng'!A1" display="Giỏ hàng" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C11" location="'6. Đặt hàng'!A1" display="Đặt hàng" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C12" location="'7. Theo dõi đơn hàng'!A1" display="Quản lý đơn hàng (khách hàng)" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C13" location="'8. Quản lý hãng'!A1" display="Quản lý Hãng" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C14" location="'9. Quản lý sản phẩm'!A1" display="Quản lý sản phẩm" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C15" location="'10. Quản lý đơn hàng'!A1" display="Quản lý đơn hàng (Admin)" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C16" location="'11. Đặt hàng nhà cung cấp'!A1" display="Đặt hàng nhà cung cấp" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C17" location="'12. Thống kê'!A1" display="Thống kê" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C18" location="'13.Nhập hàng'!A1" display="Nhập hàng" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3287,294 +3276,294 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="I7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="9"/>
+      <c r="I8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="9"/>
+      <c r="I9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="I10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="9"/>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="9"/>
+      <c r="I12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="9"/>
+      <c r="I13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="9"/>
+      <c r="I14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="9"/>
+      <c r="I15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3593,15 +3582,15 @@
     <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3618,192 +3607,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3822,15 +3811,15 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3846,238 +3835,238 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="17"/>
+      <c r="I11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="I12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="17"/>
+      <c r="I13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4096,16 +4085,16 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,148 +4109,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4278,15 +4267,16 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,175 +4292,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4487,15 +4477,16 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,175 +4502,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4696,15 +4687,16 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,175 +4712,175 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="11" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="17"/>
+      <c r="I7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="17"/>
+      <c r="I8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="I9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4905,5 +4897,6 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>